--- a/WebModule/dantri_craw/genknews2.xlsx
+++ b/WebModule/dantri_craw/genknews2.xlsx
@@ -26,247 +26,247 @@
     <t>Title</t>
   </si>
   <si>
-    <t>/viec-nhe-luong-chac-chan-khong-thap-gai-lung-thu-gian-cho-ca-sau-20180811142239927.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533972824254-1533972824254597466706.gif.png</t>
-  </si>
-  <si>
-    <t>Việc nhẹ lương chắc chắn không thấp: Gãi lưng thư giãn cho cá sấu</t>
-  </si>
-  <si>
-    <t>/htc-cong-bo-danh-sach-cac-thiet-bi-duoc-cap-nhat-len-android-9-pie-20180811113536601.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533961974314-1533961974316810715227.png</t>
-  </si>
-  <si>
-    <t>HTC công bố danh sách các thiết bị được cập nhật lên Android 9 Pie</t>
-  </si>
-  <si>
-    <t>/dich-vu-chia-se-kieu-nhat-giup-du-khach-giam-90-khoi-luong-hanh-ly-vi-cai-gi-cung-muon-duoc-20180811125440552.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533966435115-153396643511584440675.png</t>
-  </si>
-  <si>
-    <t>Dịch vụ chia sẻ kiểu Nhật: Giúp du khách giảm 90% khối lượng hành lý vì cái gì cũng mượn được</t>
-  </si>
-  <si>
-    <t>/khac-phuc-loi-luu-anh-tu-doi-sang-dinh-dang-jfif-tren-google-chrome-68-trong-windows-10-20180808181614155.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/8/photo1533726934432-15337269344331394333267.jpg</t>
-  </si>
-  <si>
-    <t>Khắc phục lỗi lưu ảnh tự đổi sang định dạng JFIF trên Google Chrome 68 trong Windows 10</t>
-  </si>
-  <si>
-    <t>/note9-da-ra-mat-nhung-samsung-van-chua-tha-cho-apple-video-da-xoay-moi-bao-rang-suc-manh-cua-iphone-la-vo-dung-20180811131225396.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533967761629-1533967761629463228945.jpg</t>
-  </si>
-  <si>
-    <t>Note9 đã ra mắt nhưng Samsung vẫn chưa tha cho Apple: video "đá xoáy" mới bảo rằng sức mạnh của iPhone là vô dụng</t>
-  </si>
-  <si>
-    <t>/microsoft-edge-danh-bai-google-chrome-ve-diem-danh-gia-cua-nguoi-dung-tren-ca-ios-lan-android-20180811123958006.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533965442654-15339654426541357666660.jpg</t>
-  </si>
-  <si>
-    <t>Microsoft Edge đánh bại Google Chrome về điểm đánh giá của người dùng trên cả iOS lẫn Android</t>
-  </si>
-  <si>
-    <t>/sony-cong-bo-danh-sach-smartphone-xperia-se-duoc-cap-nhat-len-android-9-pie-20180811110526382.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533960104592-15339601045921097681757.jpg</t>
-  </si>
-  <si>
-    <t>Sony công bố danh sách smartphone Xperia sẽ được cập nhật lên Android 9 Pie</t>
-  </si>
-  <si>
-    <t>/hanh-trinh-tro-thanh-bieu-tuong-van-hoa-bat-diet-cua-chu-meo-beo-garfield-20180811123753474.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533965831848-15339658318481558938850.jpg</t>
-  </si>
-  <si>
-    <t>Hành trình trở thành biểu tượng văn hóa bất diệt của chú mèo béo Garfield</t>
-  </si>
-  <si>
-    <t>/elon-musk-khong-chem-gio-tesla-da-bat-dau-thao-luan-voi-cac-nha-dau-tu-ve-viec-tu-nhan-hoa-20180811123523412.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533965682569-1533965682768561825236.jpg</t>
-  </si>
-  <si>
-    <t>Elon Musk không chém gió, Tesla đã bắt đầu thảo luận với các nhà đầu tư về việc tư nhân hóa</t>
-  </si>
-  <si>
-    <t>/hacker-tu-google-tim-duoc-loi-cua-iphone-yeu-cau-tim-cook-chi-245-trieu-usd-tien-thuong-20180810161418586.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533892398135-1533892398137804247622.png</t>
-  </si>
-  <si>
-    <t>Hacker từ Google tìm được lỗi của iPhone, yêu cầu Tim Cook chi 2,45 triệu USD tiền thưởng</t>
-  </si>
-  <si>
-    <t>/day-la-tieu-chi-so-1-cua-mark-zuckerberg-de-tuyen-duoc-nhan-vien-tot-20180808160639874.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/8/photo1533719153161-1533719153163606091133.png</t>
-  </si>
-  <si>
-    <t>Đây là tiêu chí số 1 của Mark Zuckerberg để tuyển được nhân viên tốt</t>
-  </si>
-  <si>
-    <t>/phai-chang-moi-smartphone-tren-thi-truong-nen-hoc-hoi-tinh-nang-nay-cua-galaxy-note9-20180810152719086.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533889611563-1533889611564758255258.jpg</t>
-  </si>
-  <si>
-    <t>Phải chăng mọi smartphone trên thị trường nên học hỏi tính năng này của Galaxy Note9?</t>
-  </si>
-  <si>
-    <t>/hoi-dong-quan-tri-cua-tesla-noi-voi-elon-musk-hay-tu-cuu-chinh-minh-di-20180810150302898.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533888140594-1533888140595743777116.png</t>
-  </si>
-  <si>
-    <t>Hội đồng quản trị của Tesla nói với Elon Musk: Hãy tự cứu chính mình đi</t>
-  </si>
-  <si>
-    <t>/boxer-hay-tam-giac-nam-gioi-chon-quan-lot-nao-thi-tot-hon-theo-khoa-hoc-20180809205015169.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/9/photo1533822475050-1533822475050426637400.jpg</t>
-  </si>
-  <si>
-    <t>Boxer hay tam giác: Nam giới chọn quần lót nào thì tốt hơn theo khoa học?</t>
-  </si>
-  <si>
-    <t>/danh-gia-tai-nghe-khong-day-jabra-elite-65t-kho-de-che-nhung-cung-khong-dac-sac-20180803004505673.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/3/photo1533231524181-1533231524183592914787.jpg</t>
-  </si>
-  <si>
-    <t>Đánh giá tai nghe không dây Jabra Elite 65t - Khó để chê nhưng cũng không đặc sắc</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/210_130/2018/8/9/photo1533832745306-15338327453061816920492.jpg</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/210_130/2018/8/9/photo1533831593342-1533831593342416219621.jpg</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/210_130/2018/8/9/photo1533832095903-15338320959042019859357.png</t>
-  </si>
-  <si>
-    <t>/dung-thu-life360-ung-dung-giup-giam-sat-vi-tri-tre-nho-cuc-ky-tien-loi-tren-smartphone-20180810070629684.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533859381027-15338593810271791705221.png</t>
-  </si>
-  <si>
-    <t>Dùng thử Life360, ứng dụng giúp giám sát vị trí trẻ nhỏ cực kỳ tiện lợi trên smartphone</t>
-  </si>
-  <si>
-    <t>/chum-anh-dep-25-khoanh-khac-khien-ban-nhan-ra-rang-the-gioi-nay-con-co-rat-nhieu-dieu-ki-dieu-20180811104512273.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533959064429-1533959064430283174000.jpg</t>
-  </si>
-  <si>
-    <t>Chùm ảnh đẹp: 25 khoảnh khắc khiến bạn nhận ra rằng thế giới này còn có rất nhiều điều kì diệu</t>
-  </si>
-  <si>
-    <t>/vui-20-buc-anh-se-chung-minh-cho-ban-thay-the-gioi-tren-tau-dien-ngam-luon-ngap-tran-nhung-dieu-ky-la-20180810165326867.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533894597125-15338945971251359393000.jpg</t>
-  </si>
-  <si>
-    <t>[Vui] 20 bức ảnh sẽ chứng minh cho bạn thấy: Thế giới trên tàu điện ngầm luôn ngập tràn những điều kỳ lạ</t>
-  </si>
-  <si>
-    <t>/cuoc-chien-phap-ly-tri-gia-ty-usd-xoay-quanh-hinh-dang-cua-cac-thanh-chocolate-20180809171407824.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/9/photo1533809109417-1533809109418895018330.jpg</t>
-  </si>
-  <si>
-    <t>Cuộc chiến pháp lý trị giá tỷ USD xoay quanh hình dạng của các thanh chocolate</t>
-  </si>
-  <si>
-    <t>/xem-trailer-game-ngay-nay-hay-dan-chang-kem-trailer-phim-bom-tan-tai-sao-vay-20180810214145976.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/11/photo1533924927679-1533924927680865181161.gif.png</t>
-  </si>
-  <si>
-    <t>Xem trailer game ngày nay hấy dẫn chẳng kém trailer phim bom tấn, tại sao vậy?</t>
-  </si>
-  <si>
-    <t>/ly-giai-co-che-hoa-hoc-giup-thep-khong-gi-co-the-chong-gi-truoc-tac-dong-cua-moi-truong-20180810190454757.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533902491081-15339024910811807082463.jpg</t>
-  </si>
-  <si>
-    <t>Lý giải cơ chế hóa học giúp thép không gỉ có thể “chống gỉ” trước tác động của môi trường?</t>
-  </si>
-  <si>
-    <t>/lieu-samsung-galaxy-home-co-giup-bixby-bat-kip-cac-doi-thu-tro-ly-ao-khac-20180810182016711.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533899919158-1533899919159144087959.jpg</t>
-  </si>
-  <si>
-    <t>Liệu Samsung Galaxy Home có giúp Bixby bắt kịp các đối thủ trợ lý ảo khác?</t>
-  </si>
-  <si>
-    <t>/mot-vaccine-chong-ung-thu-moi-ra-doi-voi-nhieu-hua-hen-20180809233444919.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/9/photo1533832156909-15338321569102136317789.jpg</t>
-  </si>
-  <si>
-    <t>Loại vaccine chỉ 1 mũi tiêm diệt nhiều bệnh ung thư là có thật!</t>
-  </si>
-  <si>
-    <t>/smartphone-moi-cua-palm-lo-dien-voi-cau-hinh-loi-thoi-man-hinh-33-inch-hd-pin-800mah-20180810234206898.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533919261389-15339192613891549834388.jpg</t>
-  </si>
-  <si>
-    <t>Smartphone mới của Palm lộ diện với cấu hình lỗi thời: Màn hình 3.3 inch HD, pin 800mAh</t>
-  </si>
-  <si>
-    <t>/blackberry-key2-le-lo-dien-phien-ban-rut-gon-cua-key2-voi-gia-re-hon-20180810235027882.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533919550035-1533919550036801876446.jpg</t>
-  </si>
-  <si>
-    <t>BlackBerry Key2 LE lộ diện: Phiên bản rút gọn của Key2 với giá rẻ hơn</t>
-  </si>
-  <si>
-    <t>/bat-ngo-chua-iphone-xuat-sac-la-vay-nhung-khong-phai-la-chiec-smartphone-tot-nhat-de-xem-youtube-20180810123558101.chn</t>
-  </si>
-  <si>
-    <t>https://genknews.genkcdn.vn/zoom/250_155/2018/8/10/photo1533885672801-15338856728011868342595.jpg</t>
-  </si>
-  <si>
-    <t>Bất ngờ chưa: iPhone xuất sắc là vậy nhưng không phải là chiếc smartphone tốt nhất để xem YouTube</t>
+    <t>/samsung-trinh-lang-chip-exynos-7904-voi-nhung-tinh-nang-cao-cap-cho-smartphone-tam-trung-2019012116402585.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/exynos-7904-1548063589099990770419-crop-15480635958591294603324.jpg</t>
+  </si>
+  <si>
+    <t>Samsung trình làng chip Exynos 7904 với những tính năng cao cấp cho smartphone tầm trung</t>
+  </si>
+  <si>
+    <t>/amazon-che-tao-thiet-bi-dac-biet-giup-cong-nhan-khong-bi-robot-dam-phai-20190121162642116.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480627491851171439889-crop-15480627780582097597038.jpg</t>
+  </si>
+  <si>
+    <t>Amazon chế tạo thiết bị đặc biệt giúp công nhân không bị robot đâm phải</t>
+  </si>
+  <si>
+    <t>/motorola-razr-2019-lan-dau-lo-thiet-ke-van-giu-duoc-do-mong-nhu-nguyen-ban-20190121154712866.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480603762801406954953-crop-1548060389907548935781.jpg</t>
+  </si>
+  <si>
+    <t>Motorola RAZR 2019 lần đầu lộ thiết kế, vẫn giữ được độ mỏng như nguyên bản</t>
+  </si>
+  <si>
+    <t>/teaser-trailer-2-cua-shazam-len-song-ven-man-tran-danh-kinh-thien-dong-dia-voi-doctor-sivana-20190121153209006.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/giphy-15480593857261665380323-crop-1548059411706925343025.gif.png</t>
+  </si>
+  <si>
+    <t>Teaser trailer #2 của Shazam lên sóng, vén màn trận đánh kinh thiên động địa với "Doctor Sivana"</t>
+  </si>
+  <si>
+    <t>/tang-luong-truy-cap-website-tmdt-va-day-manh-doanh-thu-chi-voi-mot-thao-tac-20190121115442834.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/2019-thumb-1-15480447145261523859233-0-0-375-600-crop-1548044722087-636836684829130000.png</t>
+  </si>
+  <si>
+    <t>Tăng lượng truy cập website TMĐT và đẩy mạnh doanh thu chỉ với một thao tác</t>
+  </si>
+  <si>
+    <t>/lo-anh-thiet-ke-cua-smartphone-khong-vien-khong-nut-bam-vivo-apex-2019-20190121152613616.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480590959571422472538-crop-15480591042751057641078.jpg</t>
+  </si>
+  <si>
+    <t>Lộ ảnh thiết kế của smartphone không viền, không nút bấm Vivo APEX 2019</t>
+  </si>
+  <si>
+    <t>/nhai-lai-10yearschallenge-internet-tao-ra-loat-meme-hai-huoc-nhung-khong-kem-phan-chua-xot-ve-the-gioi-20190121151600975.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo1548058502564-15480585025661497122435-crop-1548058508182816328047.jpg</t>
+  </si>
+  <si>
+    <t>Nhái lại #10YearsChallenge, Internet tạo ra loạt meme hài hước nhưng không kém phần chua xót về thế giới</t>
+  </si>
+  <si>
+    <t>/samsung-se-ra-mat-galaxy-a8s-fe-voi-mau-gradient-vao-dung-ngay-valentine-20190121150857522.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548058002758361492549-crop-15480580309941527953387.jpg</t>
+  </si>
+  <si>
+    <t>Samsung sẽ ra mắt Galaxy A8s FE với màu gradient vào đúng ngày Valentine</t>
+  </si>
+  <si>
+    <t>/intel-bat-ngo-muon-lam-thong-gia-voi-apple-nham-cuu-van-mang-kinh-doanh-chip-di-dong-20190121145046569.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548057000338510759191-crop-15480570148781904900543.jpg</t>
+  </si>
+  <si>
+    <t>Intel bất ngờ muốn làm “thông gia” với Apple, nhằm cứu vãn mảng kinh doanh chip di động</t>
+  </si>
+  <si>
+    <t>/chao-mung-den-the-ky-20-khi-dau-may-xe-lua-co-thiet-ke-dam-chat-khoa-hoc-vien-tuong-20190121123853709.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548047647475854998295-crop-15480488857381979829872.jpg</t>
+  </si>
+  <si>
+    <t>Chào mừng đến thế kỷ 20, khi đầu máy xe lửa có thiết kế đậm chất khoa học viễn tưởng</t>
+  </si>
+  <si>
+    <t>/uc-ran-beo-phi-bi-ep-den-phong-gym-danh-cho-bo-sat-de-giam-can-20190121123824475.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/tumblrnzh348pl9j1r2x3k3o11280-1548047697349904005062-crop-15480477098631067744130.jpg</t>
+  </si>
+  <si>
+    <t>Úc: Trăn, rắn béo phì bị ép đến phòng gym dành cho bò sát để giảm cân</t>
+  </si>
+  <si>
+    <t>/oppo-chinh-thuc-gui-giay-moi-su-kien-mwc-2019-co-the-trinh-lang-smartphone-man-hinh-gap-20190121130802975.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480508109661289356343-crop-15480508554711496683399.jpg</t>
+  </si>
+  <si>
+    <t>Oppo chính thức gửi giấy mời sự kiện MWC 2019, có thể trình làng smartphone màn hình gập</t>
+  </si>
+  <si>
+    <t>/ai-do-da-lap-instagram-cho-cai-muoi-muc-canh-va-gio-no-co-hon-70000-nguoi-ham-mo-20190121101155631.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/samsonas-5c41aeacac12f700-horz-15480447408031592142399-crop-1548044751669884024891.jpg</t>
+  </si>
+  <si>
+    <t>Ai đó đã lập Instagram cho cái muôi múc canh và giờ nó có hơn 70.000 người hâm mộ</t>
+  </si>
+  <si>
+    <t>/voi-tien-ich-nay-ban-co-the-bien-bat-ky-trang-web-nao-thanh-dark-mode-ngay-ca-trang-chu-google-20190121112432694.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480442970392047153292-crop-1548044554922348692935.jpg</t>
+  </si>
+  <si>
+    <t>Với tiện ích này bạn có thể biến bất kỳ trang web nào thành dark mode, rất thích hợp với cú đêm</t>
+  </si>
+  <si>
+    <t>/meme-bop-co-sakuke-dan-mang-nhat-gian-du-internet-duoc-vo-so-trang-cuoi-20190121102300709.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-4-1548040870736180965908-crop-1548040941800631446946.png</t>
+  </si>
+  <si>
+    <t>Meme "bóp cổ Sakuke": Dân mạng Nhật giận dữ, Internet được vô số tràng cười</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/210_130/2019/1/19/camera-redmi-note7-15479142935831106567833-crop-15479143019211399800948.jpg</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/210_130/2019/photo1547967335846-1547967336208-crop-15479674785871740685100.jpg</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/210_130/2019/1/20/photo-1-15479676092271034052578-crop-1547967665288284461799.jpg</t>
+  </si>
+  <si>
+    <t>/google-giam-gia-gan-35-trieu-dong-cho-pixel-3-va-pixel-3-xl-tren-google-store-20190121101010038.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/mwsnap019-15480401161341923633879-crop-1548040151048846242642.jpg</t>
+  </si>
+  <si>
+    <t>Google giảm giá gần 3,5 triệu đồng cho Pixel 3 và Pixel 3 XL trên Google Store</t>
+  </si>
+  <si>
+    <t>/lo-anh-thuc-te-moto-g7-power-voi-man-hinh-tai-tho-va-gia-ban-tu-85-trieu-dong-20190121095322991.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548039083177684295713-crop-1548039137685585447872.jpg</t>
+  </si>
+  <si>
+    <t>Lộ ảnh thực tế Moto G7 Power với màn hình tai thỏ và giá bán từ 8,5 triệu đồng</t>
+  </si>
+  <si>
+    <t>/camera-cua-galaxy-s10-co-the-kich-hoat-bang-mot-thao-tac-don-gian-gan-giong-voi-iphone-20190121093804522.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548038210249598964379-crop-15480382230461023903260.jpg</t>
+  </si>
+  <si>
+    <t>Camera của Galaxy S10 có thể kích hoạt bằng một thao tác đơn giản gần giống với iPhone</t>
+  </si>
+  <si>
+    <t>/co-den-9-cach-de-viet-dau-x-va-internet-dang-cai-nhau-om-toi-vi-chuyen-do-20190121092738522.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/uploads252fcard252fimage252f920215252f63aa44a8-9d49-460a-af51-bb037e05912ajpg252f950x534filters253aquality2528902529-15480368029581807753399-crop-15480368109251595064201.jpg</t>
+  </si>
+  <si>
+    <t>Có đến 9 cách để viết dấu "X" và Internet đang cãi nhau ỏm tỏi vì chuyện đó</t>
+  </si>
+  <si>
+    <t>/xuat-hien-video-tren-tay-va-danh-gia-nhanh-google-pixel-3-lite-201901210923571.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-1548037297606341342132-crop-15480373351181331316300.jpg</t>
+  </si>
+  <si>
+    <t>Xuất hiện video trên tay và đánh giá nhanh Google Pixel 3 Lite</t>
+  </si>
+  <si>
+    <t>/nhung-tu-viet-tat-tieng-anh-thuong-duoc-su-dung-tren-mang-xa-hoi-ma-ai-cung-can-biet-20190121090307147.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/photo1548036120732-1548036120934-crop-1548036162501979624167.jpg</t>
+  </si>
+  <si>
+    <t>Những từ viết tắt Tiếng Anh thường được sử dụng trên mạng xã hội mà ai cũng cần biết</t>
+  </si>
+  <si>
+    <t>/apple-cua-nam-2019-se-giong-nhu-intel-cua-nam-2012-20190121090256741.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480361223441490971389-crop-15480361295512027743848.jpg</t>
+  </si>
+  <si>
+    <t>Apple của năm 2019 sẽ giống như Intel của năm 2012?</t>
+  </si>
+  <si>
+    <t>/pocophone-f1-da-hap-dan-nay-con-hap-dan-hon-khi-nhan-duoc-2-cap-nhat-lon-ve-camera-20190121090225553.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/2018082715002428461838248-15480360990101533266507-crop-15480361317281057736807.jpg</t>
+  </si>
+  <si>
+    <t>Pocophone F1 đã hấp dẫn này còn hấp dẫn hơn khi nhận được 2 cập nhật lớn về camera</t>
+  </si>
+  <si>
+    <t>/ke-hoach-ha-guc-amazon-cua-nguoi-dan-ong-giau-co-nhat-chau-a-20190121090032803.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480359725901944378696-crop-15480359791471462468615.jpg</t>
+  </si>
+  <si>
+    <t>Kế hoạch 'hạ gục' Amazon của người đàn ông giàu có nhất châu Á</t>
+  </si>
+  <si>
+    <t>/tin-buon-cho-cac-tai-xe-ao-do-go-viet-vua-tang-chiet-khau-lai-xe-ngang-ngua-grab-cham-dut-chinh-sach-khong-thu-hoa-hong-20190121085841084.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_155/2019/1/21/photo-1-15480358320592059098401-crop-15480358470072079645364.jpg</t>
+  </si>
+  <si>
+    <t>Tin buồn cho các tài xế “áo đỏ”: Go-Viet vừa tăng chiết khấu lái xe ngang ngửa Grab, chấm dứt chính sách không thu hoa hồng</t>
+  </si>
+  <si>
+    <t>/10yearchallenge-10-nam-day-thu-thach-cua-nganh-smartphone-nguoi-den-vinh-quang-ke-phai-ban-minh-20190120160345913.chn</t>
+  </si>
+  <si>
+    <t>https://genknews.genkcdn.vn/zoom/250_335/2019/1/20/screen-shot-2019-01-20-at-111047-pm-1548000684110695040072-crop-15480006940041711953742.jpg</t>
+  </si>
+  <si>
+    <t>#10yearchallenge: 10 năm đầy thử thách của ngành smartphone, người đến vinh quang, kẻ phải bán mình</t>
   </si>
 </sst>
 </file>
@@ -930,67 +930,78 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>83</v>
       </c>
     </row>
